--- a/biology/Zoologie/Acanthogonatus_tacuariensis/Acanthogonatus_tacuariensis.xlsx
+++ b/biology/Zoologie/Acanthogonatus_tacuariensis/Acanthogonatus_tacuariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthogonatus tacuariensis est une espèce d'araignées mygalomorphes de la famille des Pycnothelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthogonatus tacuariensis est une espèce d'araignées mygalomorphes de la famille des Pycnothelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espècese rencontre en Uruguay et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espècese rencontre en Uruguay et au Brésil.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 14,50 à 19,80 mm et les femelles de 20,00 à 27,20 mm[2].
-Le mâle décrit par Goloboff en 1995 mesure 23,40 mm et la femelle 30,20 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 14,50 à 19,80 mm et les femelles de 20,00 à 27,20 mm.
+Le mâle décrit par Goloboff en 1995 mesure 23,40 mm et la femelle 30,20 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pycnothelopsis tacuariensis par en Pérez-Miles &amp; Capocasale, 1982. Elle est placée dans le genre Acanthogonatus par Raven en 1985[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pycnothelopsis tacuariensis par en Pérez-Miles &amp; Capocasale, 1982. Elle est placée dans le genre Acanthogonatus par Raven en 1985.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de tacuari et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Río Tacuarí.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pérez-Miles &amp; Capocasale, 1982 : Arañas del Uruguay, IV. Hallazgo de una tercera especie del genero Pycnothelopsis: Pycnothelopsis tacuariensis sp. nov. (Araneae, Pycnothelidae). Comunicaciones Zoologicas del Museo de Historia Natural de Montevideo, vol. 11, no 147, p. 1-7.</t>
         </is>
